--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC556699-ED27-3348-953F-ABEA62B2A877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385513E3-27DE-454B-9AE5-D2A1A43842E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="22540" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="16300" activeTab="1" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="backtrack shortcut" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +238,63 @@
   </si>
   <si>
     <t>Alice needs to get more chances to remove than Bob because Alice goes first. Therefore, even if they have equal chances and Alice goes first, Bob wins, since Bob had more chances than Alice after first game. Boils down to computing no of consecutive As and Bs anf the max wins.</t>
+  </si>
+  <si>
+    <t>subsets</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Use backtrack. Empty arraylist. Add elements to it. Bactrack and then remove elements from it once all possibilities from that starting point are exhausted. Since empty set is a valid subset, make sure to add the empty arrayLst as well.</t>
+  </si>
+  <si>
+    <t>subsets without dups</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use backtrack. Start with an empty arrayLsit and once its populated with all the elements(I.e len =  len of nums), then add it to final array. </t>
+  </si>
+  <si>
+    <t>permutations without dups</t>
+  </si>
+  <si>
+    <t>Same as perm 1. Only diff is sort the array and maintian a used array. If this value has been used or the previous occurance of current value hasn't been used yet, then don't use this value, use it only after previous usage, otherwis, will repeat permutaitons.</t>
+  </si>
+  <si>
+    <t>combination sum</t>
+  </si>
+  <si>
+    <t>Same as subsets, only difference is if the remainder value is 0, then add to final list, else don’t</t>
+  </si>
+  <si>
+    <t>combination sum without dups</t>
+  </si>
+  <si>
+    <t>Same as subsets 2 with the condition used as combo sum</t>
+  </si>
+  <si>
+    <t>Same as subsets, for duplicate, for index greater than start idx, if char is same as previous, don’t do anything. Make sure to sort</t>
+  </si>
+  <si>
+    <t>palindrome partitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use backtrack. Start with an empty arrayList, if there is a palindrome between start to I, then add it to the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time complexity: </t>
+  </si>
+  <si>
+    <t>O(N* 2^N)</t>
+  </si>
+  <si>
+    <t>Space complexity:</t>
+  </si>
+  <si>
+    <t>O(N)</t>
   </si>
 </sst>
 </file>
@@ -641,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,4 +1065,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991216-2735-BF46-AEA3-CF251D7FD7ED}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="141.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385513E3-27DE-454B-9AE5-D2A1A43842E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FEE62-F016-3847-84AC-85DDE68B902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="16300" activeTab="1" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="7040" yWindow="3620" windowWidth="26880" windowHeight="16300" activeTab="2" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="backtrack shortcut" sheetId="2" r:id="rId2"/>
+    <sheet name="Walmart only" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +296,72 @@
   </si>
   <si>
     <t>O(N)</t>
+  </si>
+  <si>
+    <t>Search 2D Matrix</t>
+  </si>
+  <si>
+    <t>Do BFS. Right = M*n-1. row = pivotIdx/n, col = pivotIdx%n</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>User Priority Queue. Add all 1'st form 1st array and every element form second with idx 0 in the pq. Iterate only over 2nd array after wilincrementing idx for it until hit N2.</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>Remainder theorem. Make a map of remainders. If a remainder repeats, that means k(=mybe 6) has been added to the previous remainder. So the array betweeen the previous remainder and current remainder will give the ans. Make sure that the difference in the indices &gt; 1</t>
+  </si>
+  <si>
+    <t>Implement HashMap</t>
+  </si>
+  <si>
+    <t>Create an Entry class with ey and value. Ccreate an array of LinkedList of entry ( LinkedLsit&lt;Entry&gt;[] map = new LinkedList[SIZE]), arbitrary SIZE = 709(large prime number). Each entry in the array is a bucket with idx = key%SIZE. For every operation, search for bucket, search for entry in the bucket.</t>
+  </si>
+  <si>
+    <t>Lowest common ancestor with parent</t>
+  </si>
+  <si>
+    <t>Makes copies of p and q. Keep moving towards the parent nodes and if you ever converge again, then you have found the parent. Check for null after going to parent of root.</t>
+  </si>
+  <si>
+    <t>Bubble up the presence/absence of p or q towards the top using 1 for true. Keep traversing tree left first until find p or q, same for right. When both are found, sum ==2. But if p is q's parent, sum = 3, assign root to final ans. If sum is &gt; 0 , then atleast 1 node has been found and return true.</t>
+  </si>
+  <si>
+    <t>Lowest common ancestor without parent and null entries</t>
+  </si>
+  <si>
+    <t>Lowest common ancestor without null and parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time a node is returned via tree traversal, it goes to the parent level which will in turn return the final result. So, we don't need parent node. We don't need counter as well like in 2 because both p and q are always present. To achieve the above solution, we need to first return root based on conditions as the base condition. Then computer left and right. Both left and right can be found only a their common parent level. This is where we return root, otherwise we try to return the non null child. </t>
+  </si>
+  <si>
+    <t>Text Justify</t>
+  </si>
+  <si>
+    <t>Create a list fo unbalanced lines by appending the words. To balance the lines, go char by char and append spaces fore required num of spaces.</t>
+  </si>
+  <si>
+    <t>Detect a cycle in undirected graph</t>
+  </si>
+  <si>
+    <t>DFS with visited value as 2, becomes 1 when first visited, 2 when visited form its connected node, and if it's hit again at 2, then there is a cycle.</t>
+  </si>
+  <si>
+    <t>Either DFS from every node and see how many times you need to DFS or Union Find and total - number of unions is the answer.</t>
+  </si>
+  <si>
+    <t>Number of  connected components</t>
+  </si>
+  <si>
+    <t>Friend cycle</t>
+  </si>
+  <si>
+    <t>Create map of all friends. Create map of friend to friend afterwards. Create map of friend and position. Creat map of position and total. Create map of position and total-num of other occurances. Could also result in check for cycle in undirected graph</t>
   </si>
 </sst>
 </file>
@@ -356,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -377,6 +444,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,6 +1132,116 @@
         <v>67</v>
       </c>
     </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1071,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991216-2735-BF46-AEA3-CF251D7FD7ED}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,4 +1369,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6FA25-9227-DA49-B80F-390D8BC81BA6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="85" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FEE62-F016-3847-84AC-85DDE68B902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A04836-0499-4849-97E7-BED76CAAD5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="3620" windowWidth="26880" windowHeight="16300" activeTab="2" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="5900" yWindow="5780" windowWidth="26880" windowHeight="16300" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -362,6 +362,30 @@
   </si>
   <si>
     <t>Create map of all friends. Create map of friend to friend afterwards. Create map of friend and position. Creat map of position and total. Create map of position and total-num of other occurances. Could also result in check for cycle in undirected graph</t>
+  </si>
+  <si>
+    <t>Common Ancestor/ parent</t>
+  </si>
+  <si>
+    <t>Make a list of all nodes with parents. If 0, goes to 0, if 1 , goes to 1. Find all ancests of node 1 and then node 2. Check if there are any matchers and return. Further modification is a DFS for max Len.</t>
+  </si>
+  <si>
+    <t>Max length of repeated sub array</t>
+  </si>
+  <si>
+    <t>Traverse from behind. Create memo with length+1 (nums1+1, nums2+1). If I == j, then add 1 to (i+1, j+1).</t>
+  </si>
+  <si>
+    <t>Come back to BFS topological sort and come up with Java solution and post it</t>
+  </si>
+  <si>
+    <t>Come back to badges 2 as well</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Sort the 2D array as per start time. Add end times to pq. If start time of current meeting &gt; end time in q, remove from q and then add, else add only</t>
   </si>
 </sst>
 </file>
@@ -767,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,6 +1264,28 @@
       </c>
       <c r="C42" s="4" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1373,19 +1419,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6FA25-9227-DA49-B80F-390D8BC81BA6}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="85" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1393,15 +1440,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1409,6 +1457,25 @@
         <v>102</v>
       </c>
       <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="D7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A04836-0499-4849-97E7-BED76CAAD5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4684884-82BD-6047-B7EF-3DFB035EEA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="5780" windowWidth="26880" windowHeight="16300" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="2" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -386,6 +386,30 @@
   </si>
   <si>
     <t>Sort the 2D array as per start time. Add end times to pq. If start time of current meeting &gt; end time in q, remove from q and then add, else add only</t>
+  </si>
+  <si>
+    <t>Find leaves of a binary tree</t>
+  </si>
+  <si>
+    <t>Compute level of each node. If null, return -1. The level of a node is the max of the level of left and right + 1.</t>
+  </si>
+  <si>
+    <t>Find rectangle</t>
+  </si>
+  <si>
+    <t>Go through array, search for a 0. In 2 while loops, iterate for heihgt and width. Add w and h to initial I, j to get final ciirdinates</t>
+  </si>
+  <si>
+    <t>Find all ectangles</t>
+  </si>
+  <si>
+    <t>Repeat above in a function whenver you find a 0. After h and w are found, mark alll 0s as 1s.</t>
+  </si>
+  <si>
+    <t>Find multiple shapes</t>
+  </si>
+  <si>
+    <t>Find islands with marking 0s t 1s after counting them in.</t>
   </si>
 </sst>
 </file>
@@ -791,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,6 +1310,17 @@
       </c>
       <c r="C44" s="4" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1421,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6FA25-9227-DA49-B80F-390D8BC81BA6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1502,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D7" s="9" t="s">
         <v>113</v>
       </c>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4684884-82BD-6047-B7EF-3DFB035EEA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B88F44-0933-6E4E-90BE-E704014A1D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="2" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="14080" yWindow="3580" windowWidth="26880" windowHeight="16300" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -410,6 +410,48 @@
   </si>
   <si>
     <t>Find islands with marking 0s t 1s after counting them in.</t>
+  </si>
+  <si>
+    <t>Earliest Ancestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to do a BFS to find all parents. While doing this, make sue ot check if result already has this parent, continue that time. While doing this, add level, like for loop for queue.size as well. </t>
+  </si>
+  <si>
+    <t>Boats to Save People</t>
+  </si>
+  <si>
+    <t>Since boat can take only 2 people, combine lowest with highest. If it combines, then i++. Always j-- until you find something that can combine with I or you're at the start. Sort the array</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Need a total of 4 for loops. First 2 are for I and j. The next is to iterate form 1 to 9 for char and the 4th loop is for checking if it’s a valid entry for that row, col and the 3x3 block. Need to use backtrack on the board after finding the first valid value for the spot so that, after assigning, we can look further and if it is invalid, assign it to '.' again and find the next valid value for it. Stop when entire board has returned true.</t>
+  </si>
+  <si>
+    <t>Reorganize string</t>
+  </si>
+  <si>
+    <t>Create an array of 26 for each letter to record frequency. Calculate the max and its position in arr. Have a global idx that starts at 0 and increments by 2, so that every alternate ele is set to the character recorded in arr. When its &gt;= limit, then reset to 1. Basically, start as 0, 2, 4, 6, 1, 3, 5, 7.. Also if max &gt; s+1, then its not possible.</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>Cannot use pointers, only DP because the combinations vary too much to account for with linear progression. Have pointers within s1, s2 and 3. Each time there's a match for s1 and s3, call itself to check with further characters. Same for match with s2. Key: If i == s1, then check rest of s2 == rest of s3</t>
+  </si>
+  <si>
+    <t>Populating next right pointers in each node</t>
+  </si>
+  <si>
+    <t>Level order traversal of tree. Do a BFS with for loop for size of q each time.</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to traverse array in direction. Make 2 arrays dr and dc and add values in clockwise direction. Direction+1 %4 gives the next direction when the end has been reached or its already visited. </t>
   </si>
 </sst>
 </file>
@@ -815,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1323,6 +1365,72 @@
         <v>118</v>
       </c>
     </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1333,7 +1441,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6FA25-9227-DA49-B80F-390D8BC81BA6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1637,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D8" s="9" t="s">
         <v>114</v>
       </c>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B88F44-0933-6E4E-90BE-E704014A1D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF5642-80D8-8E45-8C5B-F1C4878E0530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14080" yWindow="3580" windowWidth="26880" windowHeight="16300" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t xml:space="preserve">Need to traverse array in direction. Make 2 arrays dr and dc and add values in clockwise direction. Direction+1 %4 gives the next direction when the end has been reached or its already visited. </t>
+  </si>
+  <si>
+    <t>Spiral Matrix III</t>
+  </si>
+  <si>
+    <t>Walk in clockwise directions. This means taking steps like 1,1,2,2,3,3,4,4.. In the clockwise direction. Need 3 loops. K to run until 2*(R*C) because going out of bounds. I to run from 0 to 4 to compute the adder. J to run until I, so that we traverse in above order. If in bounds, add to result.</t>
+  </si>
+  <si>
+    <t>Spiral Matrix IV</t>
+  </si>
+  <si>
+    <t>Traverse clockwise and go across list.</t>
   </si>
 </sst>
 </file>
@@ -857,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,6 +1441,28 @@
       </c>
       <c r="C51" s="4" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF5642-80D8-8E45-8C5B-F1C4878E0530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFD54F-A448-BF49-AB26-02FCA507A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="3580" windowWidth="26880" windowHeight="16300" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -464,6 +464,72 @@
   </si>
   <si>
     <t>Traverse clockwise and go across list.</t>
+  </si>
+  <si>
+    <t>1st nd last position of ele in sorted array</t>
+  </si>
+  <si>
+    <t>Make 2 BFS calls once for 1st pos and once for last pos. If middle is lower limit or mid -1 != target, then lower limit is mid.</t>
+  </si>
+  <si>
+    <t>Number of islands</t>
+  </si>
+  <si>
+    <t>Every time you come across a 1, do a DFS. Number of DFS is result.</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Find mid pointer with fast and slow pointers. Reverse from mid to end and traverse normally to check if equal</t>
+  </si>
+  <si>
+    <t>Longest substring without repeating character</t>
+  </si>
+  <si>
+    <t>Create a window between I to j. If values are unique, add to set and final ans is max of this set size and itself and keep increasing window size(i++). If value is repeating, then squeeze the window and remove the char at j and j++. The window will keep shrinking if the value keeps repeating and reaches a single character, that's when it starts expanding the window again. The length (i-j) will correspond to all unique characters. If any repeat, that's not the one removed from map, but the one at j is removed. This means that there are still (i-j) unique characters i.e set.size()</t>
+  </si>
+  <si>
+    <t>Race car</t>
+  </si>
+  <si>
+    <t>Level order BFS with Pair of Speed and Position. Each time, try both A and R. Whichever is not visited and within range ( 0, 2*target-1), go there. Algorithm: Use Pair to store Pos, Speed. Create a method to check if computer position is in range, if it is, add it to queue. The number of instructions boils down to level order travesal. Each time check if --size == 0, if so, assign size to q.size() and increment number of instructions.</t>
+  </si>
+  <si>
+    <t> Decode String</t>
+  </si>
+  <si>
+    <t>Use stack. When ']', pop all characters until '[' to store as decodestring. Then pop '[' and start popping after this until all numbers are exhausted. Once you get the number, add decodestring k times into the stack one character at a time. OR Use recursion. Start with a global index = 0 which is used to keep track of string's char position. While the index is &lt; s.length() and not ']', if its not digit, add it to result(index++). Otherwise, start the process of collecting the value of k same as other method(index++). Do another index++ outside of this loop so as to skip '['. Then call self so that the remainder of string is computed as part of result and returned. Do another index++ here to go to next char. Now, go ahead and repeat it k times and then return this.</t>
+  </si>
+  <si>
+    <t>Diameter of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traverse to lowest left child, traverse to lowerst right child. That diameter = max(itself, (left+right). Each time you return from the method return the max(left,right)+1. This way, we will have the longest possible diameter bubbling up to the root. </t>
+  </si>
+  <si>
+    <t>Minimum editing distance</t>
+  </si>
+  <si>
+    <t>Create a 2D array of n+1 x m+1. Fill the 0th position with 'ith' value. After which, go across the 2D array computing top +1 (insert operation), left +1 (delete), top left (replace) (don't add 1 if at I, A[i] == B[i], otherwise add 1).  Take the min of the 3 for dp[i][j]. dp[n][m] is the result</t>
+  </si>
+  <si>
+    <t>Employee Free Time</t>
+  </si>
+  <si>
+    <t>Convert List&lt;List to List&lt;Interval&gt;. Then need to decalre a Comparator to compare java objects to sort the list. Then, perform similar operations to merge intervals to compute left and right. Add this to the new list. Go over this list to compute the free time like end[i] -&gt; start[i+1] and store in result.</t>
+  </si>
+  <si>
+    <t>Expressive Words</t>
+  </si>
+  <si>
+    <t>Have a check method that takes actual word and new word. Have 2 pointers go across s and w. Store the current pointer's value for each char and increment as long as the chars are repeating in the word(do seperately for s and w). Now use the diff (i-prevS and j-prevW) to check if (i-prevS) &lt; (j-prevW) || ((i - prevS) &lt; 3 &amp;&amp; (i-prevS) &gt; (j- prevW). Also, if chars in s and w don't math, return false.</t>
+  </si>
+  <si>
+    <t>Pow(x,n)</t>
+  </si>
+  <si>
+    <t>Use the half technique. If the power(n) == 0, return 1. Otherwise, call itself with half the power until 0 returns 1. Then, if n is even, return half*half, otherwise, return half*half*x for odd.</t>
   </si>
 </sst>
 </file>
@@ -869,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,6 +1529,127 @@
       </c>
       <c r="C53" s="4" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFD54F-A448-BF49-AB26-02FCA507A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745069C-EBED-0343-A4CC-D7CBFA7C7CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -530,6 +530,90 @@
   </si>
   <si>
     <t>Use the half technique. If the power(n) == 0, return 1. Otherwise, call itself with half the power until 0 returns 1. Then, if n is even, return half*half, otherwise, return half*half*x for odd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to perform topological sort and remove all leaves. Any remaining last(1 (odd) or 2(even) nodes are the result. Create List&lt;Set&gt; of all nodes and their leaves(start ot end, end to start). Using this figure out the nodes with 1 leaf, this is a leaf node. Add all these to another list. while remainingNodes &gt;2, remainingNodes - leaves, start the process of elimating these leaves from thier connected neighbours. If the size of the neighbor's set is 1, add these as the new leaves. Final result is in leaves. </t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Find missing ranges</t>
+  </si>
+  <si>
+    <t>Start with prev = lower -1. Then check for all numbers in the array as the upper limit, i.e cur = nums[i] becomes upper limit at cur-1 and start becomes prev+1. Continue this for all intervals including the last -&gt; upper</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Use Binary Search for this. If arr[mid] &gt; arr[mid+1], then hi = mid, else low = mid+1, i.e if middle ele &gt; mid+1, then you've found the peak greater than right element, you need to only check to the left, hecne hi = mid.</t>
+  </si>
+  <si>
+    <t>Find and Replace in String</t>
+  </si>
+  <si>
+    <t>Create a map of idx and source and one for target. Sort the indices and traverse string from end so that whatever gets replaced does not affect the idx of other characters.</t>
+  </si>
+  <si>
+    <t>Find 1st and last element in sorted array</t>
+  </si>
+  <si>
+    <t>Use 2 BFS. Use a first flag as param and when mid is found condn = arr[mid] == lo || arr[mid-1] != target, return mid. Similar for hi and the rest of the logic stays the same as any other BFS.</t>
+  </si>
+  <si>
+    <t>Game of life</t>
+  </si>
+  <si>
+    <t>The main point is to compute no of live neighbours done as arr={0,1,-1} and using a for(I for(j)) to iterate over ever combo outside of (0,0). Along with this technique, we also use array in place to make changes like -1 if dead after being 1(so, use abs(board[row[col]==1) as a check, and 2 is its brought into life after being dead(0). This way we can go over the same array and replace values &gt; 0 to 1 and &lt;0 to 0.</t>
+  </si>
+  <si>
+    <t>Generate Paranthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use 2 variables open and close to keep track of # brackets. Need to use backtracking to compose each string and then remove that bracket. If open&lt;n, add open brackets since there are more that can be inserted. Only if close &lt; open i.e # closed braces are lesser than open ones, then add more ")". </t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Specifically if a number's squares sum cannot be reduced to 1, it forms a cycle of known numbers. This can be checked by using fast and slow pointers. Here, instead of linkedList, we use ComputeSum(n). while(fastRunner!=1 &amp;&amp; slowRunner != fastRunner){ fastRunner = ComputeSum(computeSum(n));} Return if fastRunner ==1. Lesson learnt: use fast and slow pointers can catch cycles.</t>
+  </si>
+  <si>
+    <t>Bipartitie Graph</t>
+  </si>
+  <si>
+    <t>DFS with each node as start node. Use a color array with 0s. Bipartite refers to if each of the edges between the nodes can be in 2 different sets. We can check this by coloring as 1 or -1. Start with coloring as 1 and call DFS. If the color!=0 and it's != color param, thenr eturn false. Assign the param color and progress through every neighbour of this root node in the graph and return false if the previous call returns false. Afte everything return true. Similar to checking cycles in bi-directional graph.</t>
+  </si>
+  <si>
+    <t>Power of 2</t>
+  </si>
+  <si>
+    <t>(x &amp; (-x)) == x. (x &amp; (x - 1)) == 0. These are formulas to check if x is pow of 2 i.e 16 is pow[2]. Also use L=in long form not int.</t>
+  </si>
+  <si>
+    <t>kth largest</t>
+  </si>
+  <si>
+    <t>Use priority queue i.e min heap of size k. Lastly, when pq.poll(), result i.e kth element is at top, so for top 3, you need reverse of pq.poll()</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Need to use stack to store the positions. Logic: You need a left lim &amp; a right lim to compute the area. Keep pushing to stack as value increases because it'll always be included while backtracking computing i.e when a value is less than previous value, then compute max area of current height until the index of previously pushed height lesser than it. This means that we are computing for the maximum bar's height. Once the max bar is popped, the 2nd max bar until 'i' is popped. Now, we need to compute the area as (height(2nd bar)*Area it covers until 'i' because 'i' is lesser. So this becomes (i - stack.peek()). Continue this while traversing the entire array. At the end, there are values left in the stack. here, we need to substract from 'n' because the's the right most limit. Logic: Use stack to store positions, not values. Push -1 inititally and use this in future checks. while(height[stack.peek()] &gt;= height[i]) -&gt; area = height[stack.pop()]*( i - stack.peek()-1). The 2nd stack.peek() is to compute right limit.</t>
+  </si>
+  <si>
+    <t>Use a HashMap&lt;Character, Count&gt; with start and end pointers. While(end&lt;len){ while)(end &lt; len &amp;&amp; map contians end){ keep incrementing charAt(end)'s count and end++. If(map.size()==2), then compute length. If you encounter charAt(end) not in map, then start removing chars from start until size of map reduces from 2 to 1 and there's space to add the new charAt(end). For this, you need to start removing chars from start and do start++.</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Word Search 2</t>
+  </si>
+  <si>
+    <t>Need to use Trie. Trie consists of a Hashmap&lt;Character, TrieNode&gt; children and word. Add a node for each character in the word if it isn't in the children or create a new entry in the hashmap for it. Each time like how we have cur = cur.next, we need to do node = node.get(c) to go to next position on Trie. At the end of each word, store this in node.word.  Next step is to DFS the tree with the board. Start by checking if any of the characters on the board are in the Trie's root's children. In DFS, keep track of current letter. Get currentNode = parent.getChildren(letter). If the word at this letter is not empty, store it in final result and declare this word null now to avoid dups. Graph[i][j]="#", this is how we use in array visited notation. Traverse the array in all 4 directions and check if graph[i][j] is in Trie and call itself. Towards the end, graph[i][j] = letter and remove current node form Trie if its children are empty(i.e leaf node). This just makes searches more efficient.</t>
   </si>
 </sst>
 </file>
@@ -935,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,6 +1734,160 @@
       </c>
       <c r="C64" s="4" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745069C-EBED-0343-A4CC-D7CBFA7C7CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C681CF9-1B18-9A46-9738-EE59A06646DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -614,6 +614,18 @@
   </si>
   <si>
     <t>Need to use Trie. Trie consists of a Hashmap&lt;Character, TrieNode&gt; children and word. Add a node for each character in the word if it isn't in the children or create a new entry in the hashmap for it. Each time like how we have cur = cur.next, we need to do node = node.get(c) to go to next position on Trie. At the end of each word, store this in node.word.  Next step is to DFS the tree with the board. Start by checking if any of the characters on the board are in the Trie's root's children. In DFS, keep track of current letter. Get currentNode = parent.getChildren(letter). If the word at this letter is not empty, store it in final result and declare this word null now to avoid dups. Graph[i][j]="#", this is how we use in array visited notation. Traverse the array in all 4 directions and check if graph[i][j] is in Trie and call itself. Towards the end, graph[i][j] = letter and remove current node form Trie if its children are empty(i.e leaf node). This just makes searches more efficient.</t>
+  </si>
+  <si>
+    <t>Validate IP address</t>
+  </si>
+  <si>
+    <t>To differentiate, check if string had 3 '.' or 7 ':'. For IPv4: Check if length ==0 &gt;3, if charAt(0) == 0 &amp;&amp; length&gt;1, if every char isDigit(in for loop), if &gt; 255. For IPv6, keep a string of 0123456789abcdefABCDEF. Check if len == 0 &gt;4, if ever char in hexString(in for loop).</t>
+  </si>
+  <si>
+    <t>Stickers to make word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get a map of letters in each word provided. Do a dfs on target. Use memo initialised with ("",0) and it stores target each time. Create a letters array(26) of target as well and assign a local result to MAX_VALUE. Go through each word and check if it contains the first character of target. Once you find the word, you need to substract target - word: use a for loop to go through the 26 letters. Inside this loop, check the number of times a character occurs(to do this, times &lt; Math.max(target[i]-word[i],0)) and append the remainder characters to a new StringBuffer. Outside these 2 for loops, call DFS with the new remainderString. if the returned cur ! = -1, compute the local res(min(cur, res)). Depending on weather the target could be formed or not, we compute res as : if res == MAX_VALUE, return -1 else return 1+res. We are adding 1 to res because we are using the current work as well that's considered in the loop. </t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,6 +1900,28 @@
       </c>
       <c r="C78" s="7" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/codingHelper.xlsx
+++ b/codingHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumeshba/coding/algorithmsAndDataStrucures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C681CF9-1B18-9A46-9738-EE59A06646DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149DF609-F828-004B-8B5A-28092B4EFDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
+    <workbookView xWindow="5120" yWindow="2420" windowWidth="30720" windowHeight="18700" xr2:uid="{E5EEE7EB-6BCC-844F-B773-BEAE663F02A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t xml:space="preserve">Get a map of letters in each word provided. Do a dfs on target. Use memo initialised with ("",0) and it stores target each time. Create a letters array(26) of target as well and assign a local result to MAX_VALUE. Go through each word and check if it contains the first character of target. Once you find the word, you need to substract target - word: use a for loop to go through the 26 letters. Inside this loop, check the number of times a character occurs(to do this, times &lt; Math.max(target[i]-word[i],0)) and append the remainder characters to a new StringBuffer. Outside these 2 for loops, call DFS with the new remainderString. if the returned cur ! = -1, compute the local res(min(cur, res)). Depending on weather the target could be formed or not, we compute res as : if res == MAX_VALUE, return -1 else return 1+res. We are adding 1 to res because we are using the current work as well that's considered in the loop. </t>
+  </si>
+  <si>
+    <t>Decode ways</t>
+  </si>
+  <si>
+    <t>Need to perform recurison to check combo of index and substring(index, index+2). If char atIndex == 0, then return 0. Else call recuriosn for index and store ans. If substring &lt;= 26, ans+= recursion. Make sure add 4 base conditions(check index in memo, index == s.length(), charAtIndex == '0', index == s.length()-1).</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>Use a stack to keep track of dups in string and use 2 pointers I and j. Convert string to charArr and iterate over it. Every new entry, add 1 to stack. Otherwise, pop previous and +1. If incremented == k, then j = j-k, otherwise add new incremented to stack. Every time loop starts, assign chArr[j] = chArr[i]. In the end return new String(chArr, 0, j). Concept learnt: how to squeeze string and move pointers within in when performing modifications.</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E2BF-3754-D641-8414-7160098522DA}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,6 +1934,28 @@
       </c>
       <c r="C80" s="7" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
